--- a/速贷后台测试场景_V0.2.xlsx
+++ b/速贷后台测试场景_V0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larrychiou/Documents/速贷/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larrychiou/Documents/QAdocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1666,6 +1666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1676,7 +1677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1960,7 +1960,7 @@
   <dimension ref="B4:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1970,70 +1970,114 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2251,7 +2295,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2259,25 +2303,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2291,7 +2335,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2299,49 +2343,49 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
@@ -2375,7 +2419,7 @@
       <c r="B26">
         <v>7</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2383,7 +2427,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="2" t="s">
         <v>94</v>
       </c>
@@ -2411,7 +2455,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2419,43 +2463,43 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="2" t="s">
         <v>61</v>
       </c>
@@ -2480,7 +2524,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2488,19 +2532,19 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="2" t="s">
         <v>98</v>
       </c>
@@ -2511,7 +2555,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2519,19 +2563,19 @@
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="2" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C12:C20"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C32:C39"/>
     <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2581,55 +2625,55 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C12" s="2"/>
@@ -2641,93 +2685,93 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E24" s="9" t="s">
@@ -2759,84 +2803,84 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="18"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="18"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="18"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C44" s="11" t="s">
@@ -2953,7 +2997,7 @@
       <c r="H4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="17" t="s">
         <v>111</v>
       </c>
     </row>
